--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4822.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4822.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4822</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Oshane Romaine Thomas</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>21/10/2018</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>11/12/2018</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>22/02/2019</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -788,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>01/03/2019</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -936,7 +995,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>31/05/2019</t>
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1401,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/07/2019</t>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>12/01/2020</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1491,7 +1546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1513,7 +1568,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1550,7 +1605,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1587,7 +1642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1624,7 +1679,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1661,7 +1716,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1698,7 +1753,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1735,7 +1790,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1772,7 +1827,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1809,7 +1864,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1846,7 +1901,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1883,7 +1938,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1920,7 +1975,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1957,7 +2012,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1994,7 +2049,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2031,7 +2086,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2068,7 +2123,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2105,7 +2160,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2142,7 +2197,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2179,7 +2234,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2216,7 +2271,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2244,6 +2299,393 @@
           <t>3/41</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4253</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4254</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4255</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4256</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4822.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4822.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>21/10/2018</t>
@@ -708,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>11/12/2018</t>
@@ -755,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>22/02/2019</t>
@@ -849,6 +852,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -948,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>01/03/2019</t>
@@ -995,6 +1000,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>31/05/2019</t>
@@ -1094,6 +1100,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -1106,7 +1113,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1401,6 +1408,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/07/2019</t>
@@ -1500,6 +1508,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>12/01/2020</t>
@@ -2303,391 +2312,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4213</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4221</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4228</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4229</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4253</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4254</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4255</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4256</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4260</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4312</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.32%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>